--- a/OUTPUTS/C0B1_Abusu_historical_updated.xlsx
+++ b/OUTPUTS/C0B1_Abusu_historical_updated.xlsx
@@ -2109,10 +2109,10 @@
         <v>44472.95833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07274716826485532</v>
+        <v>0.07274716826485531</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07043098506563819</v>
+        <v>0.07043098506563818</v>
       </c>
       <c r="D73" t="n">
         <v>114.7156114367049</v>
@@ -2132,10 +2132,10 @@
         <v>44473</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07192777619716727</v>
+        <v>0.07192777619716725</v>
       </c>
       <c r="C74" t="n">
-        <v>0.069657445221095</v>
+        <v>0.06965744522109499</v>
       </c>
       <c r="D74" t="n">
         <v>114.630586707161</v>
@@ -2155,7 +2155,7 @@
         <v>44473.04166666666</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07111035189457124</v>
+        <v>0.07111035189457122</v>
       </c>
       <c r="C75" t="n">
         <v>0.06880970553623138</v>
@@ -11956,7 +11956,7 @@
         <v>0.01200780819756988</v>
       </c>
       <c r="C501" t="n">
-        <v>0.01192229159151888</v>
+        <v>0.01192229159151887</v>
       </c>
       <c r="D501" t="n">
         <v>87.35796145813057</v>
@@ -12022,7 +12022,7 @@
         <v>44490.91666666666</v>
       </c>
       <c r="B504" t="n">
-        <v>0.01191219733086417</v>
+        <v>0.01191219733086416</v>
       </c>
       <c r="C504" t="n">
         <v>0.01182068660781476</v>
@@ -12045,7 +12045,7 @@
         <v>44490.95833333334</v>
       </c>
       <c r="B505" t="n">
-        <v>0.01187934766305451</v>
+        <v>0.0118793476630545</v>
       </c>
       <c r="C505" t="n">
         <v>0.01178713474337782</v>
@@ -18971,7 +18971,7 @@
         <v>0.05892505358760109</v>
       </c>
       <c r="C806" t="n">
-        <v>0.06723288644741991</v>
+        <v>0.06723288644741993</v>
       </c>
       <c r="D806" t="n">
         <v>100.7020211882892</v>
@@ -18994,7 +18994,7 @@
         <v>0.06232759626602082</v>
       </c>
       <c r="C807" t="n">
-        <v>0.07291829931725932</v>
+        <v>0.07291829931725935</v>
       </c>
       <c r="D807" t="n">
         <v>101.7934818813631</v>
@@ -19014,10 +19014,10 @@
         <v>44503.58333333334</v>
       </c>
       <c r="B808" t="n">
-        <v>0.066791368728863</v>
+        <v>0.06679136872886302</v>
       </c>
       <c r="C808" t="n">
-        <v>0.08095892199156529</v>
+        <v>0.08095892199156531</v>
       </c>
       <c r="D808" t="n">
         <v>103.1895640340023</v>
@@ -19037,7 +19037,7 @@
         <v>44503.625</v>
       </c>
       <c r="B809" t="n">
-        <v>0.07292770566997347</v>
+        <v>0.07292770566997349</v>
       </c>
       <c r="C809" t="n">
         <v>0.09275132645296623</v>
@@ -19060,7 +19060,7 @@
         <v>44503.66666666666</v>
       </c>
       <c r="B810" t="n">
-        <v>0.0808643754628245</v>
+        <v>0.08086437546282452</v>
       </c>
       <c r="C810" t="n">
         <v>0.1051728682108996</v>
@@ -19083,7 +19083,7 @@
         <v>44503.70833333334</v>
       </c>
       <c r="B811" t="n">
-        <v>0.08939388030334587</v>
+        <v>0.08939388030334589</v>
       </c>
       <c r="C811" t="n">
         <v>0.1128511796959111</v>
@@ -19106,7 +19106,7 @@
         <v>44503.75</v>
       </c>
       <c r="B812" t="n">
-        <v>0.09780909560850466</v>
+        <v>0.09780909560850468</v>
       </c>
       <c r="C812" t="n">
         <v>0.1214185771533361</v>
